--- a/HF Annoyance Fixer/HFAF Features.xlsx
+++ b/HF Annoyance Fixer/HFAF Features.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\GitHub\HF-Userscripts\HF Annoyance Fixer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -332,12 +332,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,9 +359,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -673,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,16 +759,16 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -835,29 +843,30 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -1054,16 +1063,16 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/HF Annoyance Fixer/HFAF Features.xlsx
+++ b/HF Annoyance Fixer/HFAF Features.xlsx
@@ -332,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,11 +365,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -681,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,30 +735,31 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
@@ -759,16 +767,16 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1063,27 +1071,28 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1183,5 +1192,6 @@
     <hyperlink ref="D25" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>